--- a/8_Модуль/ПРАКТИКА/8.5 Домашняя работа.xlsx
+++ b/8_Модуль/ПРАКТИКА/8.5 Домашняя работа.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\УЧЁБА\EXCEL\Excel\8_Модуль\ПРАКТИКА\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06ED343D-89EA-4BCD-9ADA-C54D2CA19BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230CA9B9-EE2A-4719-BD96-BEE83C21B9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{0A95A732-5BCA-444D-8815-7F37AC8A3610}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4732" uniqueCount="2938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4737" uniqueCount="2943">
   <si>
     <t>Дата рождения</t>
   </si>
@@ -8854,14 +8854,30 @@
   </si>
   <si>
     <t>Продажи</t>
+  </si>
+  <si>
+    <t>Среднее:</t>
+  </si>
+  <si>
+    <t>Медиана:</t>
+  </si>
+  <si>
+    <t>Минимум:</t>
+  </si>
+  <si>
+    <t>Максимум:</t>
+  </si>
+  <si>
+    <t>Среднее без 10%:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -9047,7 +9063,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -9206,6 +9222,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Заголовок 3" xfId="1" builtinId="18"/>
@@ -9213,9 +9230,6 @@
     <cellStyle name="Финансовый" xfId="2" builtinId="3"/>
   </cellStyles>
   <dxfs count="3">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -9226,6 +9240,9 @@
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -10438,11 +10455,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C46BC7BE-3BD2-4AD1-80C7-E5E613257108}" name="Таблица1" displayName="Таблица1" ref="A1:E601" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" headerRowCellStyle="Заголовок 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C46BC7BE-3BD2-4AD1-80C7-E5E613257108}" name="Таблица1" displayName="Таблица1" ref="A1:E601" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" headerRowCellStyle="Заголовок 3">
   <autoFilter ref="A1:E601" xr:uid="{C46BC7BE-3BD2-4AD1-80C7-E5E613257108}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5619DF5E-DCC0-419A-9FE0-B61EDEA54D42}" name="Номенклатура"/>
-    <tableColumn id="2" xr3:uid="{CBC14E1C-B0F5-4F9E-8861-548C4D6B53AC}" name="Дата продажи" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{CBC14E1C-B0F5-4F9E-8861-548C4D6B53AC}" name="Дата продажи" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{34001E1A-528C-4AC4-AC96-68E1CD1548B5}" name="Формат"/>
     <tableColumn id="4" xr3:uid="{DB5A5892-86E7-4628-A2FE-AC53EAAEF706}" name="Канал продаж"/>
     <tableColumn id="5" xr3:uid="{D10A2DDD-B5C8-4C67-8E75-6F80208AAFA9}" name="Продажи"/>
@@ -22936,9 +22953,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420A4799-66BE-4A68-9140-865324F7B89A}">
   <dimension ref="A1:G2421"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22946,6 +22963,8 @@
     <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.88671875" customWidth="1"/>
     <col min="3" max="3" width="25.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -22988,6 +23007,13 @@
       <c r="C4" s="12">
         <v>1549957.6522443502</v>
       </c>
+      <c r="E4" t="s">
+        <v>2938</v>
+      </c>
+      <c r="F4" s="56">
+        <f>AVERAGE(C:C)</f>
+        <v>11826476.756723899</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
@@ -22999,6 +23025,13 @@
       <c r="C5" s="12">
         <v>711078.91474518413</v>
       </c>
+      <c r="E5" t="s">
+        <v>2939</v>
+      </c>
+      <c r="F5" s="56">
+        <f>MEDIAN(C:C)</f>
+        <v>2690492.5877559464</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
@@ -23010,6 +23043,13 @@
       <c r="C6" s="12">
         <v>1807290.3038855973</v>
       </c>
+      <c r="E6" t="s">
+        <v>2940</v>
+      </c>
+      <c r="F6" s="56">
+        <f>MIN(C:C)</f>
+        <v>82526.635583197072</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -23021,6 +23061,13 @@
       <c r="C7" s="12">
         <v>4883101.6747828508</v>
       </c>
+      <c r="E7" t="s">
+        <v>2941</v>
+      </c>
+      <c r="F7" s="56">
+        <f>MAX(C:C)</f>
+        <v>571701868.9000001</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
@@ -23031,6 +23078,13 @@
       </c>
       <c r="C8" s="12">
         <v>507049.50638007681</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2942</v>
+      </c>
+      <c r="F8" s="56">
+        <f>TRIMMEAN(C:C,0.1)</f>
+        <v>5463026.6649835669</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
